--- a/test_type_understanding/02_サイト構成（要件定義書抜粋）.xlsx
+++ b/test_type_understanding/02_サイト構成（要件定義書抜粋）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/課題用ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3264159-73B3-4746-885B-6C3B820CB633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04E80B-FF52-674B-9968-DEE5F76A0FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9280" yWindow="1000" windowWidth="19260" windowHeight="16400" xr2:uid="{41EB4D4C-C0DC-4845-9571-743502522C68}"/>
+    <workbookView xWindow="28840" yWindow="500" windowWidth="23900" windowHeight="17500" xr2:uid="{41EB4D4C-C0DC-4845-9571-743502522C68}"/>
   </bookViews>
   <sheets>
     <sheet name="サイト構成" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>問い合わせフォーム</t>
     <rPh sb="0" eb="1">
@@ -145,16 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイト構成（要件定義書から抜粋）</t>
-    <rPh sb="6" eb="11">
-      <t xml:space="preserve">ヨウケンテイギショ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">バッスイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名前、性別、電話番号、お住まいの地域、問い合わせ内容を入力し、フォーム投稿できる機能を搭載する</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ナマエ </t>
@@ -176,6 +166,78 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t xml:space="preserve">トウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前、電話番号、問い合わせ内容は必須とする</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ナマエ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>、</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t xml:space="preserve">デンワバンゴウ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">トイアワセ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ナイヨウハ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ヒッス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト構成</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">ヨウケンテイギショ バッスイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（要件定義書から抜粋）</t>
+  </si>
+  <si>
+    <t>動作環境</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ドウサカンキョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応Webブラウザ: Chrome, Safari</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">タイオウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※モバイル端末は非対応</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">タンマツ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">ヒタイオウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>推奨画面幅: 1440px</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">スイショウ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">スイショウガメン </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ハバ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8CE3A1-666D-1D42-A596-3FD255731240}">
-  <dimension ref="B2:H14"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,90 +643,120 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" t="s">
-        <v>16</v>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" t="s">
-        <v>4</v>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="H22" t="s">
         <v>18</v>
       </c>
     </row>
